--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inventory Management\pos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F93A41-7E0C-4DC8-9D3E-14FC72D01525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128505E-6BDD-49F2-8869-98D7BF821CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF06877C-4772-42A8-A194-9BA0BFCB3176}"/>
   </bookViews>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0144010E-3738-4E90-84A1-9BBD13F400E5}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,124 +432,169 @@
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>500</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>600</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>400</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>250</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>450</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>400</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
